--- a/EE454_Project_InputData.xlsx
+++ b/EE454_Project_InputData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Htut\Downloads\18 AUTUMN\EE 454\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Htut\Downloads\18 AUTUMN\EE 454\Project\Git\ee454PowerFlowProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F68455-7D82-4B13-8695-7DCFB0E86C3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDAE67-E4BC-45FD-AA72-09307585DEA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8470" windowHeight="3700" xr2:uid="{38F66D02-24C5-422D-8E0C-AC833697FE1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8470" windowHeight="3700" activeTab="2" xr2:uid="{38F66D02-24C5-422D-8E0C-AC833697FE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Line_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Bus_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="PV_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Load_Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>X_total</t>
   </si>
@@ -49,9 +50,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Bus#</t>
-  </si>
-  <si>
     <t>P (MW)</t>
   </si>
   <si>
@@ -62,6 +60,15 @@
   </si>
   <si>
     <t>Line_To</t>
+  </si>
+  <si>
+    <t>Bus #</t>
+  </si>
+  <si>
+    <t>Vref (p.u)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus # </t>
   </si>
 </sst>
 </file>
@@ -420,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9252090-B215-4A52-8134-388493026CC1}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,10 +439,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -797,9 +804,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E27C3B-65FE-4B8D-91BB-30F58DBF4FA0}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1.0449999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2542CC67-D495-4FE4-B622-D5D12353FEDB}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -807,13 +892,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">

--- a/EE454_Project_InputData.xlsx
+++ b/EE454_Project_InputData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Htut\Downloads\18 AUTUMN\EE 454\Project\Git\ee454PowerFlowProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDAE67-E4BC-45FD-AA72-09307585DEA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE23907-22D4-44E8-8E49-4742DB29D87E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8470" windowHeight="3700" activeTab="2" xr2:uid="{38F66D02-24C5-422D-8E0C-AC833697FE1A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8470" windowHeight="3700" firstSheet="1" activeTab="2" xr2:uid="{38F66D02-24C5-422D-8E0C-AC833697FE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Line_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="PV_Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Load_Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Line_Data_Con1" sheetId="4" r:id="rId2"/>
+    <sheet name="Line_Data_Con2" sheetId="5" r:id="rId3"/>
+    <sheet name="PV_Data" sheetId="2" r:id="rId4"/>
+    <sheet name="Load_Data" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>X_total</t>
   </si>
@@ -428,7 +430,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,6 +805,739 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6225E519-DBC6-49BD-93EF-34EA988DABAB}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>0.01938*2</f>
+        <v>3.8760000000000003E-2</v>
+      </c>
+      <c r="D2">
+        <f>0.05917*2</f>
+        <v>0.11834</v>
+      </c>
+      <c r="E2">
+        <f>0.0528/2</f>
+        <v>2.64E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5.4030000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.22303999999999999</v>
+      </c>
+      <c r="E3">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4.6989999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="E4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5.8110000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.17632</v>
+      </c>
+      <c r="E5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5.6950000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.17388000000000001</v>
+      </c>
+      <c r="E6">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.17102999999999999</v>
+      </c>
+      <c r="E7">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.2110000000000002E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.55618000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.25202000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9.4979999999999995E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.12291000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.25580999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>6.615E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.13027</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>3.1809999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.12711</v>
+      </c>
+      <c r="D15">
+        <v>0.27038000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>8.2049999999999998E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.19206999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>0.22092000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.19988</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.17093</v>
+      </c>
+      <c r="D18">
+        <v>0.34802</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409687B7-E566-4FA9-8721-96B797482782}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1.9380000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.917E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4.6989999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="E3">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5.8110000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.17632</v>
+      </c>
+      <c r="E4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5.6950000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.17388000000000001</v>
+      </c>
+      <c r="E5">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.17102999999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.2110000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.55618000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.25202000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9.4979999999999995E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.12291000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.25580999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6.615E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.13027</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>3.1809999999999998E-2</v>
+      </c>
+      <c r="D13">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.12711</v>
+      </c>
+      <c r="D14">
+        <v>0.27038000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>8.2049999999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.19206999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0.22092000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.19988</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.17093</v>
+      </c>
+      <c r="D17">
+        <v>0.34802</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E27C3B-65FE-4B8D-91BB-30F58DBF4FA0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -880,11 +1615,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2542CC67-D495-4FE4-B622-D5D12353FEDB}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
